--- a/Iteration 4/6. ERROR LOGS/defect_log #4.xlsx
+++ b/Iteration 4/6. ERROR LOGS/defect_log #4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 3\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 4\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163EBD1-A199-4E5E-8B9A-AB625318CAF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F799A73-245D-41B1-8530-1C61A67DDC85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="432" windowWidth="19872" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -619,70 +619,63 @@
     <t>2 min</t>
   </si>
   <si>
-    <t>mi-ty</t>
-  </si>
-  <si>
-    <t>mi-om</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>compareNumber() should be this.guesser.compareNumber()</t>
-  </si>
-  <si>
-    <t>div ID should be "#guesser1Div" instead of ""#guesserDiv""</t>
-  </si>
-  <si>
-    <t>duplicate Guesser1 definition</t>
-  </si>
-  <si>
-    <t>viewModel statement should be a parameter instead of an insteance of Vue</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>script of vue statement should be put before instance statement</t>
-  </si>
-  <si>
-    <t>JSON.stringify(theGuesser1) should be JSON.stringify(viewModel)</t>
-  </si>
-  <si>
-    <t>set inputNumber() should be 
-set inputNumber(input)</t>
-  </si>
-  <si>
-    <t>Forget to declare _inputNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forget the statement
- viewModel2.methods = { ...viewModel.methods }</t>
-  </si>
-  <si>
     <t>3 min</t>
   </si>
   <si>
-    <t>Forget to declare guesser: new Guesser1() in viewmodel</t>
-  </si>
-  <si>
-    <t>4 min</t>
-  </si>
-  <si>
-    <t>mi-cm</t>
-  </si>
-  <si>
-    <t>wn</t>
-  </si>
-  <si>
-    <t>https://javascript.info/property-accessors</t>
+    <t>didn't add setup()</t>
+  </si>
+  <si>
+    <t>didn't initialise coldCounter value</t>
+  </si>
+  <si>
+    <t>didn't initialise coolCounter value</t>
+  </si>
+  <si>
+    <t>didn't initialise warmCounter value</t>
+  </si>
+  <si>
+    <t>didn't initialise hotCounter value</t>
+  </si>
+  <si>
+    <t>Forget to add  viewModel2.methods = { ...viewModel.methods }</t>
+  </si>
+  <si>
+    <t>did not add counter++</t>
+  </si>
+  <si>
+    <t>if (theGuesser2.compareNumber()) === `Cold`) should be
+if (answer === `Cold`)</t>
+  </si>
+  <si>
+    <t>if (theGuesser2.compareNumber()) === `Cool`) should be
+if (answer === `Cool`)</t>
+  </si>
+  <si>
+    <t>if (theGuesser2.compareNumber()) === `Warm`) should be
+if (answer === `Warm`)</t>
+  </si>
+  <si>
+    <t>if (theGuesser2.compareNumber()) === `Hot`) should be
+if (answer === `Hot`)</t>
+  </si>
+  <si>
+    <t>Mike's example</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>MI-OM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,14 +731,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -934,11 +919,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -987,8 +971,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1004,12 +990,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1346,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,14 +1399,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>43332</v>
+      <c r="A7" s="18">
+        <v>43338</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -1433,24 +1415,24 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>43332</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>43338</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1459,24 +1441,24 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>43332</v>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>43338</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1485,24 +1467,24 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>43332</v>
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>43338</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1511,24 +1493,24 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>43332</v>
+      <c r="A11" s="18">
+        <v>43338</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1537,7 +1519,7 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
@@ -1547,14 +1529,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>43332</v>
+      <c r="A12" s="18">
+        <v>43338</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1563,7 +1545,7 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
@@ -1573,14 +1555,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>43332</v>
+      <c r="A13" s="18">
+        <v>43338</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1589,7 +1571,7 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
@@ -1599,14 +1581,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>43332</v>
+      <c r="A14" s="18">
+        <v>43338</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1620,19 +1602,19 @@
       <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>81</v>
+      <c r="H14" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>43332</v>
+      <c r="A15" s="18">
+        <v>43338</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1641,24 +1623,24 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>43332</v>
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>43338</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -1667,58 +1649,85 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>43338</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
@@ -1796,15 +1805,9 @@
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H58" s="6"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1" xr:uid="{9F503D78-8419-4220-917A-55C9D6E65111}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1812,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
